--- a/04 MySQL 기반 RDBMS 활용과 JDBC/18회차_실습체크리스트_정선웅.xlsx
+++ b/04 MySQL 기반 RDBMS 활용과 JDBC/18회차_실습체크리스트_정선웅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -747,7 +747,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,7 +755,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>

--- a/04 MySQL 기반 RDBMS 활용과 JDBC/18회차_실습체크리스트_정선웅.xlsx
+++ b/04 MySQL 기반 RDBMS 활용과 JDBC/18회차_실습체크리스트_정선웅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -719,7 +719,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,19 +727,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,19 +759,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2545,7 +2545,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
